--- a/Assets/06.Table/ColdSeasonPass.xlsx
+++ b/Assets/06.Table/ColdSeasonPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CF944-50B6-46E2-BA9C-A584ECF372A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1430C3-124E-4F0A-AFFC-7F574CB7BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6207,7 +6207,7 @@
         <v>88</v>
       </c>
       <c r="D259" s="1">
-        <f t="shared" ref="D259:D314" si="8">IF(C259=5,20000000,
+        <f t="shared" ref="D259:D322" si="8">IF(C259=5,20000000,
 IF(C259=30,3000,
 IF(C259=20,3000,
 IF(C259=46,3000,
@@ -6219,7 +6219,7 @@
         <v>88</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" ref="F259:F314" si="9">IF(E259=5,20000000,
+        <f t="shared" ref="F259:F322" si="9">IF(E259=5,20000000,
 IF(E259=30,3000,
 IF(E259=20,3000,
 IF(E259=46,3000,
@@ -7436,6 +7436,2776 @@
       <c r="F314" s="1">
         <f t="shared" si="9"/>
         <v>20000000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>251400000</v>
+      </c>
+      <c r="C315" s="1">
+        <v>30</v>
+      </c>
+      <c r="D315" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="E315" s="1">
+        <v>30</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>252200000</v>
+      </c>
+      <c r="C316" s="1">
+        <v>20</v>
+      </c>
+      <c r="D316" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="E316" s="1">
+        <v>20</v>
+      </c>
+      <c r="F316" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>253000000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>46</v>
+      </c>
+      <c r="D317" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>46</v>
+      </c>
+      <c r="F317" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>253800000</v>
+      </c>
+      <c r="C318" s="2">
+        <v>73</v>
+      </c>
+      <c r="D318" s="1">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E318" s="2">
+        <v>73</v>
+      </c>
+      <c r="F318" s="1">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>254600000</v>
+      </c>
+      <c r="C319" s="1">
+        <v>88</v>
+      </c>
+      <c r="D319" s="1">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="E319" s="1">
+        <v>88</v>
+      </c>
+      <c r="F319" s="1">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>255400000</v>
+      </c>
+      <c r="C320" s="1">
+        <v>5</v>
+      </c>
+      <c r="D320" s="1">
+        <f t="shared" si="8"/>
+        <v>20000000</v>
+      </c>
+      <c r="E320" s="1">
+        <v>5</v>
+      </c>
+      <c r="F320" s="1">
+        <f t="shared" si="9"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>256200000</v>
+      </c>
+      <c r="C321" s="1">
+        <v>30</v>
+      </c>
+      <c r="D321" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="E321" s="1">
+        <v>30</v>
+      </c>
+      <c r="F321" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>257000000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>20</v>
+      </c>
+      <c r="D322" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>20</v>
+      </c>
+      <c r="F322" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>257800000</v>
+      </c>
+      <c r="C323" s="1">
+        <v>46</v>
+      </c>
+      <c r="D323" s="1">
+        <f t="shared" ref="D323:D386" si="10">IF(C323=5,20000000,
+IF(C323=30,3000,
+IF(C323=20,3000,
+IF(C323=46,3000,
+IF(C323=73,300,
+IF(C323=88,150))))))</f>
+        <v>3000</v>
+      </c>
+      <c r="E323" s="1">
+        <v>46</v>
+      </c>
+      <c r="F323" s="1">
+        <f t="shared" ref="F323:F386" si="11">IF(E323=5,20000000,
+IF(E323=30,3000,
+IF(E323=20,3000,
+IF(E323=46,3000,
+IF(E323=73,300,
+IF(E323=88,150))))))</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>258600000</v>
+      </c>
+      <c r="C324" s="2">
+        <v>73</v>
+      </c>
+      <c r="D324" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E324" s="2">
+        <v>73</v>
+      </c>
+      <c r="F324" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>259400000</v>
+      </c>
+      <c r="C325" s="1">
+        <v>88</v>
+      </c>
+      <c r="D325" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E325" s="1">
+        <v>88</v>
+      </c>
+      <c r="F325" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>260200000</v>
+      </c>
+      <c r="C326" s="1">
+        <v>5</v>
+      </c>
+      <c r="D326" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E326" s="1">
+        <v>5</v>
+      </c>
+      <c r="F326" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>261000000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>30</v>
+      </c>
+      <c r="D327" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>30</v>
+      </c>
+      <c r="F327" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>261800000</v>
+      </c>
+      <c r="C328" s="1">
+        <v>20</v>
+      </c>
+      <c r="D328" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E328" s="1">
+        <v>20</v>
+      </c>
+      <c r="F328" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>262600000</v>
+      </c>
+      <c r="C329" s="1">
+        <v>46</v>
+      </c>
+      <c r="D329" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E329" s="1">
+        <v>46</v>
+      </c>
+      <c r="F329" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>263400000</v>
+      </c>
+      <c r="C330" s="2">
+        <v>73</v>
+      </c>
+      <c r="D330" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E330" s="2">
+        <v>73</v>
+      </c>
+      <c r="F330" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>264200000</v>
+      </c>
+      <c r="C331" s="1">
+        <v>88</v>
+      </c>
+      <c r="D331" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E331" s="1">
+        <v>88</v>
+      </c>
+      <c r="F331" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>265000000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>5</v>
+      </c>
+      <c r="F332" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>265800000</v>
+      </c>
+      <c r="C333" s="1">
+        <v>30</v>
+      </c>
+      <c r="D333" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E333" s="1">
+        <v>30</v>
+      </c>
+      <c r="F333" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>266600000</v>
+      </c>
+      <c r="C334" s="1">
+        <v>20</v>
+      </c>
+      <c r="D334" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E334" s="1">
+        <v>20</v>
+      </c>
+      <c r="F334" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>267400000</v>
+      </c>
+      <c r="C335" s="1">
+        <v>46</v>
+      </c>
+      <c r="D335" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E335" s="1">
+        <v>46</v>
+      </c>
+      <c r="F335" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1">
+        <v>268200000</v>
+      </c>
+      <c r="C336" s="2">
+        <v>73</v>
+      </c>
+      <c r="D336" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E336" s="2">
+        <v>73</v>
+      </c>
+      <c r="F336" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1">
+        <v>269000000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>88</v>
+      </c>
+      <c r="D337" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E337" s="1">
+        <v>88</v>
+      </c>
+      <c r="F337" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>269800000</v>
+      </c>
+      <c r="C338" s="1">
+        <v>5</v>
+      </c>
+      <c r="D338" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E338" s="1">
+        <v>5</v>
+      </c>
+      <c r="F338" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1">
+        <v>270600000</v>
+      </c>
+      <c r="C339" s="1">
+        <v>30</v>
+      </c>
+      <c r="D339" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E339" s="1">
+        <v>30</v>
+      </c>
+      <c r="F339" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>271400000</v>
+      </c>
+      <c r="C340" s="1">
+        <v>20</v>
+      </c>
+      <c r="D340" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E340" s="1">
+        <v>20</v>
+      </c>
+      <c r="F340" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1">
+        <v>272200000</v>
+      </c>
+      <c r="C341" s="1">
+        <v>46</v>
+      </c>
+      <c r="D341" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E341" s="1">
+        <v>46</v>
+      </c>
+      <c r="F341" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>273000000</v>
+      </c>
+      <c r="C342" s="2">
+        <v>73</v>
+      </c>
+      <c r="D342" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E342" s="2">
+        <v>73</v>
+      </c>
+      <c r="F342" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>273800000</v>
+      </c>
+      <c r="C343" s="1">
+        <v>88</v>
+      </c>
+      <c r="D343" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E343" s="1">
+        <v>88</v>
+      </c>
+      <c r="F343" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1">
+        <v>274600000</v>
+      </c>
+      <c r="C344" s="1">
+        <v>5</v>
+      </c>
+      <c r="D344" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E344" s="1">
+        <v>5</v>
+      </c>
+      <c r="F344" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>275400000</v>
+      </c>
+      <c r="C345" s="1">
+        <v>30</v>
+      </c>
+      <c r="D345" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E345" s="1">
+        <v>30</v>
+      </c>
+      <c r="F345" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1">
+        <v>276200000</v>
+      </c>
+      <c r="C346" s="1">
+        <v>20</v>
+      </c>
+      <c r="D346" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E346" s="1">
+        <v>20</v>
+      </c>
+      <c r="F346" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>277000000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>46</v>
+      </c>
+      <c r="D347" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>46</v>
+      </c>
+      <c r="F347" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1">
+        <v>277800000</v>
+      </c>
+      <c r="C348" s="2">
+        <v>73</v>
+      </c>
+      <c r="D348" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E348" s="2">
+        <v>73</v>
+      </c>
+      <c r="F348" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>278600000</v>
+      </c>
+      <c r="C349" s="1">
+        <v>88</v>
+      </c>
+      <c r="D349" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E349" s="1">
+        <v>88</v>
+      </c>
+      <c r="F349" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>279400000</v>
+      </c>
+      <c r="C350" s="1">
+        <v>5</v>
+      </c>
+      <c r="D350" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E350" s="1">
+        <v>5</v>
+      </c>
+      <c r="F350" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1">
+        <v>280200000</v>
+      </c>
+      <c r="C351" s="1">
+        <v>30</v>
+      </c>
+      <c r="D351" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E351" s="1">
+        <v>30</v>
+      </c>
+      <c r="F351" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>281000000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>20</v>
+      </c>
+      <c r="D352" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>20</v>
+      </c>
+      <c r="F352" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>281800000</v>
+      </c>
+      <c r="C353" s="1">
+        <v>46</v>
+      </c>
+      <c r="D353" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E353" s="1">
+        <v>46</v>
+      </c>
+      <c r="F353" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>282600000</v>
+      </c>
+      <c r="C354" s="2">
+        <v>73</v>
+      </c>
+      <c r="D354" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E354" s="2">
+        <v>73</v>
+      </c>
+      <c r="F354" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1">
+        <v>283400000</v>
+      </c>
+      <c r="C355" s="1">
+        <v>88</v>
+      </c>
+      <c r="D355" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E355" s="1">
+        <v>88</v>
+      </c>
+      <c r="F355" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1">
+        <v>284200000</v>
+      </c>
+      <c r="C356" s="1">
+        <v>5</v>
+      </c>
+      <c r="D356" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E356" s="1">
+        <v>5</v>
+      </c>
+      <c r="F356" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1">
+        <v>285000000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>30</v>
+      </c>
+      <c r="D357" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>30</v>
+      </c>
+      <c r="F357" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1">
+        <v>285800000</v>
+      </c>
+      <c r="C358" s="1">
+        <v>20</v>
+      </c>
+      <c r="D358" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E358" s="1">
+        <v>20</v>
+      </c>
+      <c r="F358" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>286600000</v>
+      </c>
+      <c r="C359" s="1">
+        <v>46</v>
+      </c>
+      <c r="D359" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E359" s="1">
+        <v>46</v>
+      </c>
+      <c r="F359" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>287400000</v>
+      </c>
+      <c r="C360" s="2">
+        <v>73</v>
+      </c>
+      <c r="D360" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E360" s="2">
+        <v>73</v>
+      </c>
+      <c r="F360" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1">
+        <v>288200000</v>
+      </c>
+      <c r="C361" s="1">
+        <v>88</v>
+      </c>
+      <c r="D361" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E361" s="1">
+        <v>88</v>
+      </c>
+      <c r="F361" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>289000000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>5</v>
+      </c>
+      <c r="F362" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>289800000</v>
+      </c>
+      <c r="C363" s="1">
+        <v>30</v>
+      </c>
+      <c r="D363" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E363" s="1">
+        <v>30</v>
+      </c>
+      <c r="F363" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>290600000</v>
+      </c>
+      <c r="C364" s="1">
+        <v>20</v>
+      </c>
+      <c r="D364" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E364" s="1">
+        <v>20</v>
+      </c>
+      <c r="F364" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>291400000</v>
+      </c>
+      <c r="C365" s="1">
+        <v>46</v>
+      </c>
+      <c r="D365" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E365" s="1">
+        <v>46</v>
+      </c>
+      <c r="F365" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1">
+        <v>292200000</v>
+      </c>
+      <c r="C366" s="2">
+        <v>73</v>
+      </c>
+      <c r="D366" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E366" s="2">
+        <v>73</v>
+      </c>
+      <c r="F366" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>293000000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>88</v>
+      </c>
+      <c r="D367" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E367" s="1">
+        <v>88</v>
+      </c>
+      <c r="F367" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>293800000</v>
+      </c>
+      <c r="C368" s="1">
+        <v>5</v>
+      </c>
+      <c r="D368" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E368" s="1">
+        <v>5</v>
+      </c>
+      <c r="F368" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>294600000</v>
+      </c>
+      <c r="C369" s="1">
+        <v>30</v>
+      </c>
+      <c r="D369" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E369" s="1">
+        <v>30</v>
+      </c>
+      <c r="F369" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>295400000</v>
+      </c>
+      <c r="C370" s="1">
+        <v>20</v>
+      </c>
+      <c r="D370" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E370" s="1">
+        <v>20</v>
+      </c>
+      <c r="F370" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>296200000</v>
+      </c>
+      <c r="C371" s="1">
+        <v>46</v>
+      </c>
+      <c r="D371" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E371" s="1">
+        <v>46</v>
+      </c>
+      <c r="F371" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>297000000</v>
+      </c>
+      <c r="C372" s="2">
+        <v>73</v>
+      </c>
+      <c r="D372" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E372" s="2">
+        <v>73</v>
+      </c>
+      <c r="F372" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>297800000</v>
+      </c>
+      <c r="C373" s="1">
+        <v>88</v>
+      </c>
+      <c r="D373" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E373" s="1">
+        <v>88</v>
+      </c>
+      <c r="F373" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>298600000</v>
+      </c>
+      <c r="C374" s="1">
+        <v>5</v>
+      </c>
+      <c r="D374" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E374" s="1">
+        <v>5</v>
+      </c>
+      <c r="F374" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>299400000</v>
+      </c>
+      <c r="C375" s="1">
+        <v>30</v>
+      </c>
+      <c r="D375" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E375" s="1">
+        <v>30</v>
+      </c>
+      <c r="F375" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1">
+        <v>300200000</v>
+      </c>
+      <c r="C376" s="1">
+        <v>20</v>
+      </c>
+      <c r="D376" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E376" s="1">
+        <v>20</v>
+      </c>
+      <c r="F376" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>301000000</v>
+      </c>
+      <c r="C377" s="1">
+        <v>46</v>
+      </c>
+      <c r="D377" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E377" s="1">
+        <v>46</v>
+      </c>
+      <c r="F377" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>301800000</v>
+      </c>
+      <c r="C378" s="2">
+        <v>73</v>
+      </c>
+      <c r="D378" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E378" s="2">
+        <v>73</v>
+      </c>
+      <c r="F378" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>302600000</v>
+      </c>
+      <c r="C379" s="1">
+        <v>88</v>
+      </c>
+      <c r="D379" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E379" s="1">
+        <v>88</v>
+      </c>
+      <c r="F379" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>303400000</v>
+      </c>
+      <c r="C380" s="1">
+        <v>5</v>
+      </c>
+      <c r="D380" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E380" s="1">
+        <v>5</v>
+      </c>
+      <c r="F380" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>304200000</v>
+      </c>
+      <c r="C381" s="1">
+        <v>30</v>
+      </c>
+      <c r="D381" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E381" s="1">
+        <v>30</v>
+      </c>
+      <c r="F381" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>305000000</v>
+      </c>
+      <c r="C382" s="1">
+        <v>20</v>
+      </c>
+      <c r="D382" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E382" s="1">
+        <v>20</v>
+      </c>
+      <c r="F382" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>305800000</v>
+      </c>
+      <c r="C383" s="1">
+        <v>46</v>
+      </c>
+      <c r="D383" s="1">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E383" s="1">
+        <v>46</v>
+      </c>
+      <c r="F383" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>306600000</v>
+      </c>
+      <c r="C384" s="2">
+        <v>73</v>
+      </c>
+      <c r="D384" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E384" s="2">
+        <v>73</v>
+      </c>
+      <c r="F384" s="1">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>307400000</v>
+      </c>
+      <c r="C385" s="1">
+        <v>88</v>
+      </c>
+      <c r="D385" s="1">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E385" s="1">
+        <v>88</v>
+      </c>
+      <c r="F385" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>308200000</v>
+      </c>
+      <c r="C386" s="1">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1">
+        <f t="shared" si="10"/>
+        <v>20000000</v>
+      </c>
+      <c r="E386" s="1">
+        <v>5</v>
+      </c>
+      <c r="F386" s="1">
+        <f t="shared" si="11"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>309000000</v>
+      </c>
+      <c r="C387" s="1">
+        <v>30</v>
+      </c>
+      <c r="D387" s="1">
+        <f t="shared" ref="D387:D439" si="12">IF(C387=5,20000000,
+IF(C387=30,3000,
+IF(C387=20,3000,
+IF(C387=46,3000,
+IF(C387=73,300,
+IF(C387=88,150))))))</f>
+        <v>3000</v>
+      </c>
+      <c r="E387" s="1">
+        <v>30</v>
+      </c>
+      <c r="F387" s="1">
+        <f t="shared" ref="F387:F439" si="13">IF(E387=5,20000000,
+IF(E387=30,3000,
+IF(E387=20,3000,
+IF(E387=46,3000,
+IF(E387=73,300,
+IF(E387=88,150))))))</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>309800000</v>
+      </c>
+      <c r="C388" s="1">
+        <v>20</v>
+      </c>
+      <c r="D388" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E388" s="1">
+        <v>20</v>
+      </c>
+      <c r="F388" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>310600000</v>
+      </c>
+      <c r="C389" s="1">
+        <v>46</v>
+      </c>
+      <c r="D389" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E389" s="1">
+        <v>46</v>
+      </c>
+      <c r="F389" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>311400000</v>
+      </c>
+      <c r="C390" s="2">
+        <v>73</v>
+      </c>
+      <c r="D390" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E390" s="2">
+        <v>73</v>
+      </c>
+      <c r="F390" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>312200000</v>
+      </c>
+      <c r="C391" s="1">
+        <v>88</v>
+      </c>
+      <c r="D391" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E391" s="1">
+        <v>88</v>
+      </c>
+      <c r="F391" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>313000000</v>
+      </c>
+      <c r="C392" s="1">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>5</v>
+      </c>
+      <c r="F392" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>313800000</v>
+      </c>
+      <c r="C393" s="1">
+        <v>30</v>
+      </c>
+      <c r="D393" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E393" s="1">
+        <v>30</v>
+      </c>
+      <c r="F393" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>314600000</v>
+      </c>
+      <c r="C394" s="1">
+        <v>20</v>
+      </c>
+      <c r="D394" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E394" s="1">
+        <v>20</v>
+      </c>
+      <c r="F394" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>315400000</v>
+      </c>
+      <c r="C395" s="1">
+        <v>46</v>
+      </c>
+      <c r="D395" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E395" s="1">
+        <v>46</v>
+      </c>
+      <c r="F395" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>316200000</v>
+      </c>
+      <c r="C396" s="2">
+        <v>73</v>
+      </c>
+      <c r="D396" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E396" s="2">
+        <v>73</v>
+      </c>
+      <c r="F396" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>317000000</v>
+      </c>
+      <c r="C397" s="1">
+        <v>88</v>
+      </c>
+      <c r="D397" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E397" s="1">
+        <v>88</v>
+      </c>
+      <c r="F397" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>317800000</v>
+      </c>
+      <c r="C398" s="1">
+        <v>5</v>
+      </c>
+      <c r="D398" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E398" s="1">
+        <v>5</v>
+      </c>
+      <c r="F398" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>318600000</v>
+      </c>
+      <c r="C399" s="1">
+        <v>30</v>
+      </c>
+      <c r="D399" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E399" s="1">
+        <v>30</v>
+      </c>
+      <c r="F399" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>319400000</v>
+      </c>
+      <c r="C400" s="1">
+        <v>20</v>
+      </c>
+      <c r="D400" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E400" s="1">
+        <v>20</v>
+      </c>
+      <c r="F400" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1">
+        <v>320200000</v>
+      </c>
+      <c r="C401" s="1">
+        <v>46</v>
+      </c>
+      <c r="D401" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E401" s="1">
+        <v>46</v>
+      </c>
+      <c r="F401" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>321000000</v>
+      </c>
+      <c r="C402" s="2">
+        <v>73</v>
+      </c>
+      <c r="D402" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E402" s="2">
+        <v>73</v>
+      </c>
+      <c r="F402" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>321800000</v>
+      </c>
+      <c r="C403" s="1">
+        <v>88</v>
+      </c>
+      <c r="D403" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E403" s="1">
+        <v>88</v>
+      </c>
+      <c r="F403" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>322600000</v>
+      </c>
+      <c r="C404" s="1">
+        <v>5</v>
+      </c>
+      <c r="D404" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E404" s="1">
+        <v>5</v>
+      </c>
+      <c r="F404" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>323400000</v>
+      </c>
+      <c r="C405" s="1">
+        <v>30</v>
+      </c>
+      <c r="D405" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E405" s="1">
+        <v>30</v>
+      </c>
+      <c r="F405" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>324200000</v>
+      </c>
+      <c r="C406" s="1">
+        <v>20</v>
+      </c>
+      <c r="D406" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E406" s="1">
+        <v>20</v>
+      </c>
+      <c r="F406" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>325000000</v>
+      </c>
+      <c r="C407" s="1">
+        <v>46</v>
+      </c>
+      <c r="D407" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E407" s="1">
+        <v>46</v>
+      </c>
+      <c r="F407" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>325800000</v>
+      </c>
+      <c r="C408" s="2">
+        <v>73</v>
+      </c>
+      <c r="D408" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E408" s="2">
+        <v>73</v>
+      </c>
+      <c r="F408" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>326600000</v>
+      </c>
+      <c r="C409" s="1">
+        <v>88</v>
+      </c>
+      <c r="D409" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E409" s="1">
+        <v>88</v>
+      </c>
+      <c r="F409" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>327400000</v>
+      </c>
+      <c r="C410" s="1">
+        <v>5</v>
+      </c>
+      <c r="D410" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E410" s="1">
+        <v>5</v>
+      </c>
+      <c r="F410" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1">
+        <v>328200000</v>
+      </c>
+      <c r="C411" s="1">
+        <v>30</v>
+      </c>
+      <c r="D411" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E411" s="1">
+        <v>30</v>
+      </c>
+      <c r="F411" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>329000000</v>
+      </c>
+      <c r="C412" s="1">
+        <v>20</v>
+      </c>
+      <c r="D412" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E412" s="1">
+        <v>20</v>
+      </c>
+      <c r="F412" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>329800000</v>
+      </c>
+      <c r="C413" s="1">
+        <v>46</v>
+      </c>
+      <c r="D413" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E413" s="1">
+        <v>46</v>
+      </c>
+      <c r="F413" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>330600000</v>
+      </c>
+      <c r="C414" s="2">
+        <v>73</v>
+      </c>
+      <c r="D414" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E414" s="2">
+        <v>73</v>
+      </c>
+      <c r="F414" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>331400000</v>
+      </c>
+      <c r="C415" s="1">
+        <v>88</v>
+      </c>
+      <c r="D415" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E415" s="1">
+        <v>88</v>
+      </c>
+      <c r="F415" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1">
+        <v>332200000</v>
+      </c>
+      <c r="C416" s="1">
+        <v>5</v>
+      </c>
+      <c r="D416" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E416" s="1">
+        <v>5</v>
+      </c>
+      <c r="F416" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>333000000</v>
+      </c>
+      <c r="C417" s="1">
+        <v>30</v>
+      </c>
+      <c r="D417" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E417" s="1">
+        <v>30</v>
+      </c>
+      <c r="F417" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>333800000</v>
+      </c>
+      <c r="C418" s="1">
+        <v>20</v>
+      </c>
+      <c r="D418" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E418" s="1">
+        <v>20</v>
+      </c>
+      <c r="F418" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>334600000</v>
+      </c>
+      <c r="C419" s="1">
+        <v>46</v>
+      </c>
+      <c r="D419" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E419" s="1">
+        <v>46</v>
+      </c>
+      <c r="F419" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>335400000</v>
+      </c>
+      <c r="C420" s="2">
+        <v>73</v>
+      </c>
+      <c r="D420" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E420" s="2">
+        <v>73</v>
+      </c>
+      <c r="F420" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1">
+        <v>336200000</v>
+      </c>
+      <c r="C421" s="1">
+        <v>88</v>
+      </c>
+      <c r="D421" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E421" s="1">
+        <v>88</v>
+      </c>
+      <c r="F421" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>337000000</v>
+      </c>
+      <c r="C422" s="1">
+        <v>5</v>
+      </c>
+      <c r="D422" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E422" s="1">
+        <v>5</v>
+      </c>
+      <c r="F422" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>337800000</v>
+      </c>
+      <c r="C423" s="1">
+        <v>30</v>
+      </c>
+      <c r="D423" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E423" s="1">
+        <v>30</v>
+      </c>
+      <c r="F423" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>338600000</v>
+      </c>
+      <c r="C424" s="1">
+        <v>20</v>
+      </c>
+      <c r="D424" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E424" s="1">
+        <v>20</v>
+      </c>
+      <c r="F424" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>339400000</v>
+      </c>
+      <c r="C425" s="1">
+        <v>46</v>
+      </c>
+      <c r="D425" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E425" s="1">
+        <v>46</v>
+      </c>
+      <c r="F425" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1">
+        <v>340200000</v>
+      </c>
+      <c r="C426" s="2">
+        <v>73</v>
+      </c>
+      <c r="D426" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E426" s="2">
+        <v>73</v>
+      </c>
+      <c r="F426" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>341000000</v>
+      </c>
+      <c r="C427" s="1">
+        <v>88</v>
+      </c>
+      <c r="D427" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E427" s="1">
+        <v>88</v>
+      </c>
+      <c r="F427" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>341800000</v>
+      </c>
+      <c r="C428" s="1">
+        <v>5</v>
+      </c>
+      <c r="D428" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E428" s="1">
+        <v>5</v>
+      </c>
+      <c r="F428" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>342600000</v>
+      </c>
+      <c r="C429" s="1">
+        <v>30</v>
+      </c>
+      <c r="D429" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E429" s="1">
+        <v>30</v>
+      </c>
+      <c r="F429" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>343400000</v>
+      </c>
+      <c r="C430" s="1">
+        <v>20</v>
+      </c>
+      <c r="D430" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E430" s="1">
+        <v>20</v>
+      </c>
+      <c r="F430" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1">
+        <v>344200000</v>
+      </c>
+      <c r="C431" s="1">
+        <v>46</v>
+      </c>
+      <c r="D431" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E431" s="1">
+        <v>46</v>
+      </c>
+      <c r="F431" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>345000000</v>
+      </c>
+      <c r="C432" s="2">
+        <v>73</v>
+      </c>
+      <c r="D432" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E432" s="2">
+        <v>73</v>
+      </c>
+      <c r="F432" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>345800000</v>
+      </c>
+      <c r="C433" s="1">
+        <v>88</v>
+      </c>
+      <c r="D433" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E433" s="1">
+        <v>88</v>
+      </c>
+      <c r="F433" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>346600000</v>
+      </c>
+      <c r="C434" s="1">
+        <v>5</v>
+      </c>
+      <c r="D434" s="1">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="E434" s="1">
+        <v>5</v>
+      </c>
+      <c r="F434" s="1">
+        <f t="shared" si="13"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>347400000</v>
+      </c>
+      <c r="C435" s="1">
+        <v>30</v>
+      </c>
+      <c r="D435" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E435" s="1">
+        <v>30</v>
+      </c>
+      <c r="F435" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1">
+        <v>348200000</v>
+      </c>
+      <c r="C436" s="1">
+        <v>20</v>
+      </c>
+      <c r="D436" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E436" s="1">
+        <v>20</v>
+      </c>
+      <c r="F436" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>349000000</v>
+      </c>
+      <c r="C437" s="1">
+        <v>46</v>
+      </c>
+      <c r="D437" s="1">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="E437" s="1">
+        <v>46</v>
+      </c>
+      <c r="F437" s="1">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>349800000</v>
+      </c>
+      <c r="C438" s="2">
+        <v>73</v>
+      </c>
+      <c r="D438" s="1">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E438" s="2">
+        <v>73</v>
+      </c>
+      <c r="F438" s="1">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>350600000</v>
+      </c>
+      <c r="C439" s="1">
+        <v>88</v>
+      </c>
+      <c r="D439" s="1">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E439" s="1">
+        <v>88</v>
+      </c>
+      <c r="F439" s="1">
+        <f t="shared" si="13"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
